--- a/database/nav.xlsx
+++ b/database/nav.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>ffff</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>jjj</t>
   </si>
 </sst>
 </file>
@@ -389,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,78 +599,6 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
